--- a/ky/downloads/data-excel/1.3.1.1e.xlsx
+++ b/ky/downloads/data-excel/1.3.1.1e.xlsx
@@ -79,9 +79,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in percents)</t>
-  </si>
-  <si>
     <t>(пайыз менен)</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>1.3.1.1e Share of officially registered unemployed</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -7972,27 +7972,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="4" max="20" width="8.625" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="7"/>
@@ -8008,15 +8007,15 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -8032,7 +8031,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8050,7 +8049,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -8108,8 +8107,11 @@
       <c r="S4" s="10">
         <v>2022</v>
       </c>
+      <c r="T4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8167,8 +8169,11 @@
       <c r="S5" s="2">
         <v>2.8</v>
       </c>
+      <c r="T5" s="2">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -8226,8 +8231,11 @@
       <c r="S6" s="3">
         <v>3.1</v>
       </c>
+      <c r="T6" s="3">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -8285,8 +8293,11 @@
       <c r="S7" s="5">
         <v>2.5</v>
       </c>
+      <c r="T7" s="5">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8304,7 +8315,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8322,7 +8333,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8340,7 +8351,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8358,7 +8369,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8376,7 +8387,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8394,7 +8405,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8412,7 +8423,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8430,7 +8441,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
